--- a/Original/CN/Dialog/Drama/fairy_nanasu.xlsx
+++ b/Original/CN/Dialog/Drama/fairy_nanasu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_nanasu</t>
   </si>
   <si>
     <t xml:space="preserve">あれ？　おかしい…何だか羽がビリビリするよ？</t>
@@ -748,9 +751,9 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L57" sqref="L57"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -832,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" ht="13.8">
@@ -858,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" ht="13.8">
@@ -881,7 +884,7 @@
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -918,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" ht="13.8">
@@ -932,7 +935,7 @@
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="113.4">
@@ -946,7 +949,7 @@
         <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -966,7 +969,7 @@
         <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" ht="12.8">
@@ -986,7 +989,7 @@
         <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" ht="12.8">
@@ -1013,7 +1016,7 @@
         <v>43</v>
       </c>
       <c r="L28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" ht="12.8">
@@ -1051,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="L34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" ht="13.8">
@@ -1085,7 +1088,7 @@
         <v>53</v>
       </c>
       <c r="L41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" ht="12.8">
@@ -1107,7 +1110,7 @@
         <v>56</v>
       </c>
       <c r="L43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" ht="12.8">
@@ -1129,170 +1132,175 @@
       </c>
     </row>
     <row r="48" ht="12.8">
+      <c r="G48" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I48" s="1">
         <v>12</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="46.25">
       <c r="G49" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I49" s="1">
         <v>13</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" ht="13.8">
-      <c r="G50" s="11"/>
+      <c r="G50" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I50" s="1">
         <v>14</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" ht="13.8">
       <c r="G51" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I51" s="1">
         <v>15</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" ht="23.85">
       <c r="G52" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I52" s="1">
         <v>16</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" ht="13.8">
       <c r="G53" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I53" s="1">
         <v>17</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" ht="13.8">
       <c r="G54" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I54" s="1">
         <v>18</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" ht="12.8">
       <c r="G55" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I55" s="1">
         <v>19</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" ht="12.8">
       <c r="G56" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I56" s="1">
         <v>20</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" ht="12.8">
       <c r="E57" s="7"/>
       <c r="F57" s="15"/>
       <c r="G57" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I57" s="1">
         <v>21</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" ht="12.8">
@@ -1303,13 +1311,13 @@
         <v>58</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G59" s="11"/>
     </row>
     <row r="60" ht="12.8">
       <c r="E60" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>45</v>

--- a/Original/CN/Dialog/Drama/fairy_nanasu.xlsx
+++ b/Original/CN/Dialog/Drama/fairy_nanasu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fairy_nanasu</t>
   </si>
   <si>
     <t xml:space="preserve">あれ？　おかしい…何だか羽がビリビリするよ？</t>
@@ -751,9 +748,9 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L57" sqref="L57"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -835,7 +832,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" ht="13.8">
@@ -861,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="13.8">
@@ -884,7 +881,7 @@
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -921,7 +918,7 @@
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" ht="13.8">
@@ -935,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" ht="113.4">
@@ -949,7 +946,7 @@
         <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -969,7 +966,7 @@
         <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" ht="12.8">
@@ -989,7 +986,7 @@
         <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" ht="12.8">
@@ -1016,7 +1013,7 @@
         <v>43</v>
       </c>
       <c r="L28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="12.8">
@@ -1054,7 +1051,7 @@
         <v>48</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="13.8">
@@ -1088,7 +1085,7 @@
         <v>53</v>
       </c>
       <c r="L41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" ht="12.8">
@@ -1110,7 +1107,7 @@
         <v>56</v>
       </c>
       <c r="L43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" ht="12.8">
@@ -1132,175 +1129,170 @@
       </c>
     </row>
     <row r="48" ht="12.8">
-      <c r="G48" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I48" s="1">
         <v>12</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="L48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" ht="46.25">
       <c r="G49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I49" s="1">
         <v>13</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="L49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" ht="13.8">
-      <c r="G50" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="G50" s="11"/>
       <c r="I50" s="1">
         <v>14</v>
       </c>
       <c r="J50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="L50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" ht="13.8">
       <c r="G51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I51" s="1">
         <v>15</v>
       </c>
       <c r="J51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" ht="23.85">
       <c r="G52" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I52" s="1">
         <v>16</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="L52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" ht="13.8">
       <c r="G53" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I53" s="1">
         <v>17</v>
       </c>
       <c r="J53" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="L53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" ht="13.8">
       <c r="G54" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I54" s="1">
         <v>18</v>
       </c>
       <c r="J54" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K54" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="L54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" ht="12.8">
       <c r="G55" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I55" s="1">
         <v>19</v>
       </c>
       <c r="J55" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="L55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" ht="12.8">
       <c r="G56" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I56" s="1">
         <v>20</v>
       </c>
       <c r="J56" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="L56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" ht="12.8">
       <c r="E57" s="7"/>
       <c r="F57" s="15"/>
       <c r="G57" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I57" s="1">
         <v>21</v>
       </c>
       <c r="J57" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="L57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" ht="12.8">
@@ -1311,13 +1303,13 @@
         <v>58</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59" s="11"/>
     </row>
     <row r="60" ht="12.8">
       <c r="E60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>45</v>
